--- a/medicine/Sexualité et sexologie/Aileen_Wuornos/Aileen_Wuornos.xlsx
+++ b/medicine/Sexualité et sexologie/Aileen_Wuornos/Aileen_Wuornos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aileen Wuornos, né Aileen Carol Pittman le 29 février 1956 à Rochester dans le Michigan, et morte le 9 octobre 2002 à Starke en Floride, est une tueuse en série américaine, surnommée « La Demoiselle de la Mort ».
@@ -515,11 +527,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance
-Aileen Carol Wuornos est née sous le nom de Susanne Carol Pittman à Rochester, dans le Michigan, aux États-Unis. Elle a un frère aîné prénommé Keith, né en février 1955. Sa mère, Diane Pratt, a quinze ans lorsqu'elle épouse Leo Dale Pittman le 3 juin 1954. Moins de deux ans après cette union et deux mois avant la naissance de Wuornos, Pratt divorce. Pittman est un pédophile qui a passé la majeure partie de sa vie à aller en prison et à en sortir. Aileen Wuornos n'a jamais rencontré son père car, quand elle est née, il était en prison pour viol et tentative de meurtre sur un petit garçon de huit ans. Leo Pittman se suicide dans sa cellule par pendaison à l'aide de ses draps, en 1969. En janvier 1960, Diane Pratt abandonne ses enfants, les laissant avec leurs grands-parents maternels d'origine finlandaise, Lauri et Britta Wuornos, à Troy (Michigan). Keith et Aileen sont adoptés légalement le 18 mars 1960 par leurs grands-parents Wuornos et prennent leur patronyme.
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aileen Carol Wuornos est née sous le nom de Susanne Carol Pittman à Rochester, dans le Michigan, aux États-Unis. Elle a un frère aîné prénommé Keith, né en février 1955. Sa mère, Diane Pratt, a quinze ans lorsqu'elle épouse Leo Dale Pittman le 3 juin 1954. Moins de deux ans après cette union et deux mois avant la naissance de Wuornos, Pratt divorce. Pittman est un pédophile qui a passé la majeure partie de sa vie à aller en prison et à en sortir. Aileen Wuornos n'a jamais rencontré son père car, quand elle est née, il était en prison pour viol et tentative de meurtre sur un petit garçon de huit ans. Leo Pittman se suicide dans sa cellule par pendaison à l'aide de ses draps, en 1969. En janvier 1960, Diane Pratt abandonne ses enfants, les laissant avec leurs grands-parents maternels d'origine finlandaise, Lauri et Britta Wuornos, à Troy (Michigan). Keith et Aileen sont adoptés légalement le 18 mars 1960 par leurs grands-parents Wuornos et prennent leur patronyme.
 Dès son plus jeune âge, Aileen Wuornos a des relations sexuelles avec de multiples partenaires dont son propre frère. À l'âge de quatorze ans, elle tombe enceinte, déclarant que la grossesse est la conséquence d'un viol par un inconnu. Elle donne naissance, le 23 mars 1971, à un garçon à la Maison des Mères Célibataires de Détroit. L'enfant est immédiatement placé afin d'être adopté. Le 7 juillet 1971, Britta Wuornos meurt d'une cirrhose du foie après que Aileen et son frère sont mis sous tutelle. Lorsqu'elle atteint ses quinze ans, son grand-père la chasse de la maison et Aileen Wuornos commence à subvenir à ses besoins comme prostituée.
-Premiers délits
-Le 27 mai 1974, elle est interpelée dans le comté de Jefferson dans le Colorado, pour conduite en état d'ivresse, comportement contraire aux bonnes mœurs et tir au pistolet de calibre 22 à partir d'un véhicule en mouvement. Elle est condamnée par défaut puisqu'elle ne se présente pas au tribunal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aileen_Wuornos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aileen_Wuornos</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Premiers délits</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 27 mai 1974, elle est interpelée dans le comté de Jefferson dans le Colorado, pour conduite en état d'ivresse, comportement contraire aux bonnes mœurs et tir au pistolet de calibre 22 à partir d'un véhicule en mouvement. Elle est condamnée par défaut puisqu'elle ne se présente pas au tribunal.
 En 1976, elle fait de l'auto-stop jusqu'en Floride, où elle rencontre Lewis Gratz Fell (28 juin 1907 - 6 janvier 2000), âgé alors de 69 ans et président d'un yacht-club. Ils se marient la même année, l'annonce de leur union est même publiée dans les pages du journal local. Cependant, Aileen Wuornos continue à être régulièrement impliquée dans des altercations au bar local et est finalement envoyée en prison pour violence. Elle frappe également Fell avec sa propre canne, ce qui le conduit à demander une injonction à son encontre, à la suite de laquelle elle retourne dans le Michigan.
 Le 14 juillet 1976, elle est arrêtée dans le Comté d'Antrim (Michigan) pour voie de fait et trouble à l'ordre public après avoir provoqué un esclandre dans un bar, et après qu'elle a lancé une boule de billard à la tête d'un barman. Trois jours plus tard, le 17 juillet 1976, son frère Keith meurt d'un cancer de la gorge. Aileen Wuornos bénéficie des 10 000 $ de son assurance-vie qu'elle dilapide en quelques semaines[réf. nécessaire]. Aileen Wuornos et Lewis Fell divorcent le 21 juillet après neuf semaines de mariage.
 Le 20 mai 1981, elle est arrêtée à Edgewater en Floride pour l'attaque à main armée d'un commerce de proximité. Elle est condamnée à une peine de prison ferme le 4 mai 1982 et est libérée le 30 juin 1983.
@@ -532,31 +584,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Aileen_Wuornos</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aileen_Wuornos</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Meurtres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Richard Mallory, 51 ans, le 30 novembre 1989. La première victime d'Aileen Carol Wuornos était propriétaire d'un magasin de composants électroniques à Clearwater, un homme déjà reconnu coupable de viol qu'elle déclara avoir tué en état de légitime défense. Un shérif-adjoint du comté de Volusia découvrit le véhicule abandonné de Mallory le 1er décembre 1989. Son cadavre ne fut retrouvé que le 13 décembre dans un secteur boisé à plusieurs miles de distance. Le corps comportait plusieurs impacts, dont deux au poumon gauche ont été considérés comme à l'origine de la mort.
 Charles "Dick" Humphreys, 56 ans, le 19 mai 1990. Humphreys était commandant en retraite de l'U.S. Air Force, un ancien enquêteur de mauvais traitements aux enfants pour le compte de l'État de Floride et un ancien chef de la police. Son corps fut retrouvé le 12 septembre 1990 dans le comté de Marion. Il était entièrement dévêtu et avait reçu six balles au niveau de la tête et du torse. Sa voiture fut retrouvée dans le comté de Suwannee.
@@ -568,43 +622,83 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Aileen_Wuornos</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aileen_Wuornos</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Affaire judiciaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interpellation et procès
-Aileen Wuornos et Tyria Moore abandonnent la voiture de Peter Siems, après avoir été impliquées dans un accident de la circulation, le 4 juillet 1990 ; c'est à cette occasion que la police scientifique retrouve une empreinte digitale de Wuornos sur une des poignées de porte. Les témoins de l'accident, qui ont vu les passagères fuir du véhicule, se font connaître auprès de la police et fournissent des descriptions des fugitives, ce qui aboutit à une campagne médiatique afin de les localiser. La police retrouve également des objets personnels des victimes dans des monts-de-piété, couverts d'empreintes digitales correspondant à celles retrouvées dans les voitures des victimes ainsi que dans le rapport de police établi lors de la seconde interpellation de Wuornos de 1976.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Interpellation et procès</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aileen Wuornos et Tyria Moore abandonnent la voiture de Peter Siems, après avoir été impliquées dans un accident de la circulation, le 4 juillet 1990 ; c'est à cette occasion que la police scientifique retrouve une empreinte digitale de Wuornos sur une des poignées de porte. Les témoins de l'accident, qui ont vu les passagères fuir du véhicule, se font connaître auprès de la police et fournissent des descriptions des fugitives, ce qui aboutit à une campagne médiatique afin de les localiser. La police retrouve également des objets personnels des victimes dans des monts-de-piété, couverts d'empreintes digitales correspondant à celles retrouvées dans les voitures des victimes ainsi que dans le rapport de police établi lors de la seconde interpellation de Wuornos de 1976.
 Le 9 janvier 1991, Aileen Wuornos est arrêtée la première, lors d'une interpellation spectaculaire, dans un bar de motards, « The Last Resort » dans le comté de Volusia. La police localise Moore, le lendemain à Scranton en Pennsylvanie. Celle-ci accepte d'obtenir les aveux de Wuornos en échange d'une procédure d'immunité judiciaire complète sur le ou les crimes dans lesquels elle serait impliquée. La police ramène Moore en Floride, où elle est logée dans un motel. Suivant les instructions de la police, Moore téléphone à Wuornos à plusieurs reprises, lui demandant notamment son aide et qu'elle la disculpe. Trois jours plus tard, le 16 janvier 1991, Wuornos avoue les meurtres. Elle prétend que les hommes ont tenté de la violer et qu'elle a agi par légitime défense.
-Par la suite, dans les semaines qui suivent, on retrouve les objets et bijoux qu'elle a volés. L'arme du crime, son revolver calibre 22, est retrouvée sur les indications données par Aileen Wurnos dans un lac à côté du bar « The Last Resort »[1].
+Par la suite, dans les semaines qui suivent, on retrouve les objets et bijoux qu'elle a volés. L'arme du crime, son revolver calibre 22, est retrouvée sur les indications données par Aileen Wurnos dans un lac à côté du bar « The Last Resort ».
 Le 14 janvier 1992 débute le procès concernant le meurtre de Richard Mallory. Bien que des faits antérieurs ne puissent normalement pas être évoqués lors d'un procès criminel, utilisant en ceci la jurisprudence Williams de l'État de Floride, l'accusation peut néanmoins produire des preuves liées aux autres crimes afin de démontrer que le même modus operandi a été suivi pour tous ces meurtres. Wuornos est reconnue coupable du meurtre de Richard Mallory, le 27 janvier 1992, grâce au témoignage à charge de Tyria Moore. Lors de la sentence, les psychiatres, présentés par la défense, déclarent que Wuornos est instable mentalement et qu'ils ont diagnostiqué des troubles de la personnalité avec des désordres mentaux assimilés à la schizophrénie. Aileen Wuornos est une première fois condamnée à la peine capitale le 31 janvier 1992.
 Le 31 mars 1992, Wuornos plaide coupable pour les meurtres de Charles Humphreys, Troy Burress et David Spears, déclarant qu'elle souhaite « être droite vis-à-vis de Dieu ». Lors de sa déposition devant la Cour, elle déclare, « Je voulais vous rappeler que Richard Mallory m'a vraiment violée comme je l'avais précédemment déclaré. Mais les autres ne l'ont pas fait. Ils ont seulement commencé à le faire ». Le 15 mai 1992, Aileen Wuornos est de nouveau condamnée trois fois à la peine capitale.
 En juin 1992, Wuornos plaide à nouveau coupable pour le meurtre de Charles Carskaddon et est condamnée à la peine de mort pour la cinquième fois au mois de novembre 1992. La défense tente durant le procès de prouver que Mallory a essayé de commettre un viol dans un autre État, et qu'il avait été remis en liberté conditionnelle avec une grande mansuétude par l'institution de remise de peine de l'État du Maryland alors que celle-ci aurait dû veiller à la prévention de nouvelles agressions sexuelles par ce dernier. La défense obtient et présente les rapports de cette institution démontrant que, de 1958 à 1962, Mallory était soumis à un traitement chimiothérapeuthique et mis sous observation à la suite de présomptions d'agressions dans l'intention de violer, et qu'au total il a suivi huit années de traitement en contrepartie de sa liberté conditionnelle. Le juge refuse que ces éléments soient retenus par la Cour comme des preuves et rejette la requête de Wuornos qui demandait un second procès.
 En février 1993, Wuornos plaide coupable pour le meurtre de Walter Jeno Antonio et est condamnée, une sixième fois, à la peine capitale. Aucune charge n'est retenue contre elle pour le meurtre de Peter Siems puisqu'on ne retrouva jamais le corps de la victime.
 Aileen Wuornos raconta plusieurs versions incohérentes à propos des meurtres. Elle affirma initialement que les sept hommes l'avaient violée alors qu'elle effectuait son activité de prostituée, puis elle se rétracta sur ses déclarations de légitime défense. Durant un entretien accordé au documentariste Nick Broomfield, alors qu'elle pensait que les caméras et micros étaient débranchés, elle déclara à ce dernier qu'il s'agissait bien de légitime défense et qu'elle ne devrait pas être présente dans le couloir de la mort, où elle séjournait depuis deux ans à ce moment, et qu'elle souhaitait mourir.
-Exécution
-L'appel d'Aileen Wuornos auprès de la Cour Suprême des États-Unis est rejeté en 1996. En 2001, elle annonce qu'elle ne ferait plus appel de sa condamnation à la peine capitale. Elle fait une requête auprès de la Cour Suprême de Floride pour se séparer de son conseil juridique et pour arrêter tous les appels, déclarant, « J'ai tué ces hommes, je les ai volés alors qu'ils étaient froids comme la glace. Et je le referais de nouveau. Il n'y a aucune raison de me garder en vie ou quoi que ce soit, car je tuerai encore. J'ai de la haine qui suinte de tous mes pores… j'en ai assez d'entendre cette chose, « elle est folle ». J'ai été examinée tellement de fois. Je suis compétente, saine et j'essaie de dire la vérité. Je suis celle qui déteste le plus fortement la vie humaine et je tuerai de nouveau. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aileen_Wuornos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aileen_Wuornos</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Affaire judiciaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Exécution</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appel d'Aileen Wuornos auprès de la Cour Suprême des États-Unis est rejeté en 1996. En 2001, elle annonce qu'elle ne ferait plus appel de sa condamnation à la peine capitale. Elle fait une requête auprès de la Cour Suprême de Floride pour se séparer de son conseil juridique et pour arrêter tous les appels, déclarant, « J'ai tué ces hommes, je les ai volés alors qu'ils étaient froids comme la glace. Et je le referais de nouveau. Il n'y a aucune raison de me garder en vie ou quoi que ce soit, car je tuerai encore. J'ai de la haine qui suinte de tous mes pores… j'en ai assez d'entendre cette chose, « elle est folle ». J'ai été examinée tellement de fois. Je suis compétente, saine et j'essaie de dire la vérité. Je suis celle qui déteste le plus fortement la vie humaine et je tuerai de nouveau. ».
 Le Gouverneur de Floride, Jeb Bush, mandate alors trois psychiatres afin d'avoir un entretien de 15 minutes avec Wuornos. Les questions auxquelles doivent répondre ces experts permettent de conclure que la condamnée comprend qu'elle va mourir et pour quels crimes elle va être exécutée. Tous trois la jugent apte mentalement à être exécutée.
 Lors de la dernière interview accordée au journaliste Nick Broomfield le 8 octobre 2002, Aileen Wuornos accuse les gardiennes de la prison d'avoir abusé d'elle. Elle les accuse de souiller sa nourriture, en crachant dedans, en lui servant des pommes de terres cuites dans de la saleté ou de la nourriture mélangée avec de l'urine. Elle se plaint également d'avoir surpris des conversations « tendant à la pousser à bout pour qu'elle se suicide avant son exécution » et « souhaitant me violer avant l'exécution », de fouilles en étant dénudée, de se faire passer, à chaque fois qu'elle doit quitter sa cellule, les menottes si fermement que ses poignets en sont meurtris, de coups de pied lancés contre la porte de sa cellule, de fréquents contrôles des fenêtres par les gardiennes, de pression basse de l'eau, de moisissures sur son matelas et de « miaulement de chat… avec le dégout et une pure haine à mon encontre. » Wuornos menace de faire la grève des douches ou des plateaux-repas quand certains fonctionnaires sont de service. « En attendant, mon estomac gargouille et je prends des douches au lavabo de ma cellule. »
 Son avocat déclare que « Madame Wuornos souhaite seulement avoir un traitement approprié, un traitement humain jusqu'au jour de son exécution, » et « si ses allégations ne correspondent pas à la réalité, celle-ci est vraisemblablement sujette à des hallucinations qui font qu'elle croit vraiment en ce qu'elle a écrit. »
@@ -614,31 +708,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Aileen_Wuornos</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aileen_Wuornos</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Après l'exécution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Après son exécution, Aileen Wuornos est incinérée. Ses cendres sont rapportées par Dawn Botkins dans son Michigan natal et elle les disperse sous un arbre. Elle avait demandé que la chanson Carnival de Natalie Merchant, l'ancienne chanteuse du groupe 10,000 Maniacs, soit jouée lors de ses obsèques. Lorsqu'on lui demanda pourquoi sa chanson passait en bande-son lors de la diffusion du générique de fin du documentaire de Nick Broomfield Aileen: Life and Death of a Serial Killer, Natalie Merchant commenta :
 « Quand le réalisateur Nick Broomfield m'a envoyé une cassette de son film, je fus si troublée par le sujet traité que je n'ai même pas osé la regarder. Aileen Wuornos était une torturée, a mené une vie de torturée qui dépasse mes pires cauchemars. Je n'étais pas d'accord jusqu'à ce que l'on m'ait dit qu'Aileen avait passé tant d'heures à écouter mon album Tigerlily dans le couloir de la mort et qu'elle avait demandé que la chanson Carnival soit jouée à ses obsèques que j'ai accordé l'autorisation pour l'utilisation de la chanson dans le film. C'est très étrange de penser aux endroits où va ma musique une fois que je l'ai composée. Si elle a pu lui apporter du réconfort, je dois être reconnaissante. »
@@ -648,35 +744,37 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Aileen_Wuornos</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aileen_Wuornos</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Débat et droit des prostituées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loin de la seule chronique médiatique et judiciaire qui a valu à Aileen Wuornos d'être étiquetée « première tueuse en série lesbienne » par le FBI et la presse populaire américaine[2], le cas de Wuornos attire l'attention sur la situation de vulnérabilité des prostituées.
-Wuornos a toujours affirmé qu'elle avait agi en situation de légitime défense face à des clients violents et que l'assassinat de seulement sept hommes sur les milliers de clients qu'elle avait eus illustrait bien ce fait. Plus généralement, le cas d'Aileen Wuornos soulève le problème des agressions (viol, vol et passage à tabac) dont sont régulièrement victimes les prostituées (notamment dans les pays qui nient ou répriment l'existence du « travail sexuel »), comme n'ont pas manqué de le rappeler les différentes associations de « travailleuses du sexe » pendant son procès[3].
-Lynda Hart dans Fatal Women, Lesbian Sexuality and the Mark of Aggression, raconte comment Aileen Wuornos sera à la fois construite par la presse américaine comme « tueuse en série », « femme fatale » et un danger à écarter[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loin de la seule chronique médiatique et judiciaire qui a valu à Aileen Wuornos d'être étiquetée « première tueuse en série lesbienne » par le FBI et la presse populaire américaine, le cas de Wuornos attire l'attention sur la situation de vulnérabilité des prostituées.
+Wuornos a toujours affirmé qu'elle avait agi en situation de légitime défense face à des clients violents et que l'assassinat de seulement sept hommes sur les milliers de clients qu'elle avait eus illustrait bien ce fait. Plus généralement, le cas d'Aileen Wuornos soulève le problème des agressions (viol, vol et passage à tabac) dont sont régulièrement victimes les prostituées (notamment dans les pays qui nient ou répriment l'existence du « travail sexuel »), comme n'ont pas manqué de le rappeler les différentes associations de « travailleuses du sexe » pendant son procès.
+Lynda Hart dans Fatal Women, Lesbian Sexuality and the Mark of Aggression, raconte comment Aileen Wuornos sera à la fois construite par la presse américaine comme « tueuse en série », « femme fatale » et un danger à écarter.
 </t>
         </is>
       </c>
